--- a/biology/Zoologie/Chiens_du_guet/Chiens_du_guet.xlsx
+++ b/biology/Zoologie/Chiens_du_guet/Chiens_du_guet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les chiens du guet (du mot « guet », anciennement utilisé pour désigner une surveillance nocturne) étaient une meute de chiens de garde que l'on lâchait à la nuit tombée sur la grève entourant les remparts de Saint-Malo, afin d'en assurer la protection : dissuader les intrus (puissances étrangères ennemies, pirates et corsaires) d'attaquer la ville ou de piller la cargaison des navires accostés dans le port et dans les chantiers navals.
 Ils étaient lâchés durant la période du couvre-feu, lorsque les portes de la ville étaient fermées, afin qu'ils n'attaquent pas les habitants. Ces derniers étaient avertis le soir qu'ils devaient rentrer par le clocher de la cathédrale, et le matin qu'ils pouvaient sortir au son d'une trompette.
@@ -512,11 +524,13 @@
           <t>Description et historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les chiens du guet étaient entretenus aux frais de la commune qui, pour couvrir ces dépenses, avait institué un impôt appelé « droit de chiennage ». Des officiers municipaux appelés « chiennetiers » étaient chargés de les dresser, les nourrir, les lâcher au coucher du soleil, et les ramener quand le jour se levait[1].
-Quant à leur race, il s'agissait vraisemblablement de dogues d'Angleterre[2] si l'on en croit le blasonnement qui les décrit (voir infra).
-Ils ont été instaurés en 1155, et ont assuré leur fonction jusqu'au 7 mars 1770, date à laquelle ils ont dévoré un officier de marine du nom d'Ansquer de Kerouartz[3], qui avait tenté de forcer le passage et d'escalader l'enceinte : à la suite de cet accident, la municipalité a donné l'ordre de les empoisonner[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les chiens du guet étaient entretenus aux frais de la commune qui, pour couvrir ces dépenses, avait institué un impôt appelé « droit de chiennage ». Des officiers municipaux appelés « chiennetiers » étaient chargés de les dresser, les nourrir, les lâcher au coucher du soleil, et les ramener quand le jour se levait.
+Quant à leur race, il s'agissait vraisemblablement de dogues d'Angleterre si l'on en croit le blasonnement qui les décrit (voir infra).
+Ils ont été instaurés en 1155, et ont assuré leur fonction jusqu'au 7 mars 1770, date à laquelle ils ont dévoré un officier de marine du nom d'Ansquer de Kerouartz, qui avait tenté de forcer le passage et d'escalader l'enceinte : à la suite de cet accident, la municipalité a donné l'ordre de les empoisonner.
 </t>
         </is>
       </c>
